--- a/ジョブeat.xlsx
+++ b/ジョブeat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="22635" windowHeight="9615"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="22635" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>価格</t>
     <rPh sb="0" eb="2">
@@ -262,6 +262,80 @@
     <rPh sb="5" eb="7">
       <t>ヨテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常　</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上見込み</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食</t>
+  </si>
+  <si>
+    <t>フクオカ　1158</t>
+  </si>
+  <si>
+    <t>農業</t>
+  </si>
+  <si>
+    <t>全国　11031</t>
+  </si>
+  <si>
+    <t>フクオカ　209</t>
+  </si>
+  <si>
+    <t>漁業</t>
+  </si>
+  <si>
+    <t>全国　2323</t>
+  </si>
+  <si>
+    <t>フクオカ　27</t>
+  </si>
+  <si>
+    <t>卸</t>
+  </si>
+  <si>
+    <t>全国　47359</t>
+  </si>
+  <si>
+    <t>フクオカ　2005</t>
+  </si>
+  <si>
+    <t>小売り</t>
+  </si>
+  <si>
+    <t>全国　74715</t>
+  </si>
+  <si>
+    <t>フクオカ　3130</t>
+  </si>
+  <si>
+    <t>全国　</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -269,7 +343,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);\(&quot;¥&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +361,19 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -308,8 +398,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -624,62 +723,191 @@
     <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2">
+        <v>30664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1">
+        <f>H3*$D$15</f>
+        <v>1620000</v>
+      </c>
+      <c r="J3" s="1">
+        <f>H3*$D$16</f>
+        <v>3240000</v>
+      </c>
+      <c r="K3" s="1">
+        <f>I3+J3</f>
+        <v>4860000</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I13" si="0">H4*$D$15</f>
+        <v>3240000</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J13" si="1">H4*$D$16</f>
+        <v>6480000</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4+J4</f>
+        <v>9720000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H5">
+        <v>150</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>4860000</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>9720000</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K4:K13" si="2">I5+J5</f>
+        <v>14580000</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>6480000</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>12960000</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>19440000</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H7">
+        <v>250</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>8100000</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>16200000</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>24300000</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H8">
+        <v>300</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>9720000</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>19440000</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>29160000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -689,21 +917,100 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H9">
+        <v>350</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>11340000</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>22680000</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>34020000</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H10">
+        <v>400</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>12960000</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>25920000</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>38880000</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H11">
+        <v>450</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>14580000</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>29160000</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>43740000</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H12">
+        <v>500</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>16200000</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>32400000</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>48600000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -722,59 +1029,78 @@
       <c r="F14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="M14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C15">
         <f>B15*12</f>
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="D15">
         <f>B15*12*E15</f>
-        <v>21600</v>
+        <v>32400</v>
       </c>
       <c r="E15">
         <v>0.9</v>
       </c>
       <c r="F15">
         <f>C15-D15</f>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3600</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="C16">
         <f>B16*12</f>
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="D16">
         <f>B16*12*E16</f>
-        <v>54000</v>
+        <v>64800</v>
       </c>
       <c r="E16">
         <v>0.9</v>
       </c>
       <c r="F16">
         <f>C16-D16</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="M19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -782,7 +1108,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -799,7 +1125,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>19</v>
       </c>
